--- a/client/src/assets/excel/nre_test_item_template.xlsx
+++ b/client/src/assets/excel/nre_test_item_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\tx_nre\client\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39646B3E-47A6-44CE-8461-7CB51A25B479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1504205E-17C2-4144-9B00-58C5B5B396F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,42 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Yen. EmmaXY (TPE)</author>
-  </authors>
-  <commentList>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yen. EmmaXY (TPE):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-3+2(for all report)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>REL0977 Operating Temperature</t>
   </si>
@@ -144,10 +110,6 @@
     </r>
   </si>
   <si>
-    <t>REL0978 Input Power Cycling Test Procedure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>REL0968 Temperature Humidity Test Procedure</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,16 +120,119 @@
   <si>
     <t>REL0978_Appendix_B Input Power Cycling Test Procedure</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETSI EN300 (T3.1) High Temperature Operation</t>
+  </si>
+  <si>
+    <t>ETSI EN300 (T3.1) Low Temperature Operation</t>
+  </si>
+  <si>
+    <t>GR63 &amp; ETSI EN300 (T3.1) Temperature &amp; Humidity(OP) 
+ 30C/90% 96 hours</t>
+  </si>
+  <si>
+    <t>GR63-Profile Temperature &amp; Humidity Cycling (OP)</t>
+  </si>
+  <si>
+    <t>GR63-Profile Storage_Low Temperature exposure and thermal shock</t>
+  </si>
+  <si>
+    <t>GR63-Profile Storage_High Temperature exposure and thermal shock</t>
+  </si>
+  <si>
+    <t>GR63-Profile Storage_High Temperature and Humidity exposure</t>
+  </si>
+  <si>
+    <t>ETSI EN300-019-2-2- Profile Storage_Humidity_relative condensation</t>
+  </si>
+  <si>
+    <t>ETSI EN300-019-2-2- Profile Storage_Temperature &amp; Humidity Cycling</t>
+  </si>
+  <si>
+    <t>GR63 - keep 4 hours Operation with Fan Fail</t>
+  </si>
+  <si>
+    <t>MIL810H Altitude OP (Altitude Nop OP will replace by Dell Altitude)</t>
+  </si>
+  <si>
+    <t>GR63 Altitue OP</t>
+  </si>
+  <si>
+    <t>GR63 Airborne Contaminant (FMG)-indoor</t>
+  </si>
+  <si>
+    <t>GR63 Surface Temperature test</t>
+  </si>
+  <si>
+    <t>MIL810H  Blowing Sand &amp; Dust</t>
+  </si>
+  <si>
+    <t>ENG0021842 Dynamics Validation HDD Throughput Test Procedure</t>
+  </si>
+  <si>
+    <t>SV0102 Enterprise Non-Operational Random Vibration Test Procedure</t>
+  </si>
+  <si>
+    <t>SV0105 Enterprise Operational Random Vibration Test Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV0106 Enterprise Non-Operational Half Sine Shock Test Procedure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV0107 Enterprise Operational Half Sine Shock Test Procedure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV0108 Enterprise Non-Operational Square Wave Shock Test Procedure </t>
+  </si>
+  <si>
+    <t>SV0117 Non-Operational Half Sine Shock Test for Rack Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SV0114 Enterprise Rack and Stack Vibration Test Procedure </t>
+  </si>
+  <si>
+    <t>SV0118 Non-Operational Random Vibration Test for Rack Systems</t>
+  </si>
+  <si>
+    <t>SV0436 Strain Measurement Test Setup</t>
+  </si>
+  <si>
+    <t>NEBS GR63 Office Vib 0.15 Grms, 5-100 HZ, GR_63_5.4.2</t>
+  </si>
+  <si>
+    <t>NEBS GR63 Earthquake, Zone 4, GR_63_5.4.1</t>
+  </si>
+  <si>
+    <t>NEBS GR63 unpackaged equipment shock, NONOP-Shock, GR_63_5.3.2</t>
+  </si>
+  <si>
+    <t>MIL-810H, 1.04 Grms, 10-500 HZ, OP-Vibration,
+1. Method 514.8; Category 20(Marine Vehicles) Annex D 2.9a (Wheeled vehicles) Procedure I
+2. Method 514.8; Category 21(Ground Vehicles) Annex D 2.10, procedure I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIL-810H, 7.7 Grms, 20-2000 HZ, NONOP-Vibration, </t>
+  </si>
+  <si>
+    <t>MIL-810H, 0.76~1.08 Grms, 5-500 HZ, NONOP-Vibration, Method 514.8; Category 4</t>
+  </si>
+  <si>
+    <t>MIL-810H, TP sawtooth 40g, 11ms, OP-Shock, Method 516.8 Procedure I</t>
+  </si>
+  <si>
+    <t>MIL-901E Lightweight Hammer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -196,19 +261,6 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -242,6 +294,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -257,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -340,69 +397,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{93F6F852-1F36-4555-8C9D-D58FFC05F9B3}"/>
     <cellStyle name="一般 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -680,10 +799,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -695,254 +816,698 @@
   <sheetData>
     <row r="1" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="12">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="E7" s="13">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12">
+        <v>4</v>
+      </c>
+      <c r="E9" s="13">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12">
+        <v>17.5</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="E11" s="13">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1.125</v>
+      </c>
+      <c r="E12" s="13">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
         <v>10</v>
       </c>
-      <c r="E4" s="10">
+      <c r="C13" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="D13" s="14">
+        <v>87.92</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>11</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>12</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="14">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>13</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="14">
+        <v>5.6</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>14</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1.167</v>
+      </c>
+      <c r="E17" s="13">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="14">
+        <v>9.75</v>
+      </c>
+      <c r="E18" s="13">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>16</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="14">
+        <v>2</v>
+      </c>
+      <c r="E19" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <v>17</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>18</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="14">
+        <v>2</v>
+      </c>
+      <c r="E21" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
         <v>19</v>
       </c>
-      <c r="D5" s="9">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10">
-        <v>452.6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
+      <c r="C22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="14">
+        <v>2</v>
+      </c>
+      <c r="E22" s="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>20</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="14">
+        <v>2</v>
+      </c>
+      <c r="E23" s="13">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <v>21</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="14">
+        <v>2</v>
+      </c>
+      <c r="E24" s="13">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>22</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="14">
+        <v>2</v>
+      </c>
+      <c r="E25" s="13">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
+        <v>23</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="14">
+        <v>2</v>
+      </c>
+      <c r="E26" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>24</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="14">
+        <v>2</v>
+      </c>
+      <c r="E27" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="10">
+        <v>25</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="E28" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
+        <v>26</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="E29" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
+        <v>27</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="E30" s="13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="10">
+        <v>28</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="E31" s="13">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="10">
+        <v>29</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="14">
+        <v>3</v>
+      </c>
+      <c r="E32" s="13">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="10">
+        <v>30</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="14">
+        <v>4</v>
+      </c>
+      <c r="E33" s="13">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="10">
+        <v>31</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="E34" s="13">
         <v>0</v>
       </c>
-      <c r="D6" s="9">
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="10">
+        <v>32</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="E35" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="10">
+        <v>33</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="14">
+        <v>4</v>
+      </c>
+      <c r="E36" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="10">
+        <v>34</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="14">
+        <v>5</v>
+      </c>
+      <c r="E37" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="10">
+        <v>35</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="14">
+        <v>4</v>
+      </c>
+      <c r="E38" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="10">
+        <v>36</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="14">
+        <v>8</v>
+      </c>
+      <c r="E39" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="10">
+        <v>37</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="14">
+        <v>4</v>
+      </c>
+      <c r="E40" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="10">
+        <v>38</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="14">
+        <v>10.5</v>
+      </c>
+      <c r="E41" s="13">
         <v>0</v>
       </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9">
-        <v>10.625</v>
-      </c>
-      <c r="E7" s="10">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="10">
+        <v>39</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="14">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="9">
-        <v>10.625</v>
-      </c>
-      <c r="E8" s="10">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="E42" s="13">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="10">
+        <v>40</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="14">
+        <v>24</v>
+      </c>
+      <c r="E43" s="13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="10">
+        <v>41</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="E44" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="10">
+        <v>42</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="10">
+        <v>43</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="E46" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="10">
+        <v>44</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="E47" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="10">
+        <v>45</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="E48" s="13">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="9">
-        <v>15</v>
-      </c>
-      <c r="E9" s="10">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="10">
+        <v>46</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="E49" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="10">
+        <v>47</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="14">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9">
-        <v>8</v>
-      </c>
-      <c r="E10" s="10">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="9">
-        <v>25.8</v>
-      </c>
-      <c r="E11" s="10">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="9">
-        <v>7.8</v>
-      </c>
-      <c r="E12" s="10">
-        <v>5.3999999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="11">
-        <v>5.125</v>
-      </c>
-      <c r="E13" s="10">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="11">
-        <v>49.56</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
-        <v>12</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="11">
-        <v>74.666666666666671</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
-        <v>13</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="11">
-        <v>35.999999999999993</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
-        <v>14</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="11">
-        <v>58.800000000000004</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
-        <v>15</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="11">
-        <v>9.8666666666666671</v>
-      </c>
-      <c r="E18" s="10">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6">
-        <v>16</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="12">
-        <v>3.2</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0</v>
-      </c>
+      <c r="E50" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="10">
+        <v>48</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="17">
+        <v>5</v>
+      </c>
+      <c r="E51" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -950,6 +1515,5 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>